--- a/pemdasproject/snake_leaderboard.xlsx
+++ b/pemdasproject/snake_leaderboard.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>aul</t>
+          <t>aulop</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -514,12 +514,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-12-18 14:29:57</t>
+          <t>2025-12-18 22:13:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hard</t>
+          <t>Normal</t>
         </is>
       </c>
     </row>
@@ -530,11 +530,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-12-18 14:29:45</t>
+          <t>2025-12-18 14:29:57</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -554,19 +554,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-12-18 14:29:37</t>
+          <t>2025-12-18 14:29:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Hard</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>aul</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -574,12 +574,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-12-18 10:44:24</t>
+          <t>2025-12-18 14:29:37</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hard</t>
+          <t>Normal</t>
         </is>
       </c>
     </row>
@@ -594,19 +594,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-12-18 10:44:04</t>
+          <t>2025-12-18 10:44:24</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Hard</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>aulieee</t>
+          <t>h</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -614,7 +614,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-12-18 09:29:11</t>
+          <t>2025-12-18 10:44:04</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-12-18 09:29:05</t>
+          <t>2025-12-18 09:29:11</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>aulieee</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-12-18 09:17:54</t>
+          <t>2025-12-18 09:29:05</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>k</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -674,7 +674,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-12-18 09:17:30</t>
+          <t>2025-12-18 09:17:54</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-12-18 09:17:25</t>
+          <t>2025-12-18 09:17:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -706,7 +706,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>l</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -714,7 +714,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-12-18 09:17:09</t>
+          <t>2025-12-18 09:17:25</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -726,7 +726,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>a</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -734,7 +734,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-12-18 09:16:45</t>
+          <t>2025-12-18 09:17:09</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -746,7 +746,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>k</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -754,7 +754,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-12-18 09:11:48</t>
+          <t>2025-12-18 09:16:45</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-12-18 09:11:41</t>
+          <t>2025-12-18 09:11:48</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-12-18 09:11:32</t>
+          <t>2025-12-18 09:11:41</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -806,7 +806,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>lll</t>
+          <t>g</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -814,7 +814,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-12-18 09:10:57</t>
+          <t>2025-12-18 09:11:32</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-12-18 09:10:51</t>
+          <t>2025-12-18 09:10:57</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-12-18 09:10:46</t>
+          <t>2025-12-18 09:10:51</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -874,10 +874,30 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>2025-12-18 09:10:46</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>lll</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>2025-12-18 09:10:42</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
